--- a/src/main/resources/xlsx/cpc_stat_template.xlsx
+++ b/src/main/resources/xlsx/cpc_stat_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D1ED3356-B338-4693-8A2F-21481A3BBE83}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +32,6 @@
     <t>统计日期：2017年05月27日</t>
   </si>
   <si>
-    <t>北京师范大学内设机构干部配备统计表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学部、院、系所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,14 +99,18 @@
   </si>
   <si>
     <t>机关职能部处、直属单位、教辅单位、机关党总支、经营性单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school内设机构干部配备统计表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,33 +421,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -462,16 +436,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -753,14 +754,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25.125" style="7" customWidth="1" collapsed="1"/>
@@ -777,168 +778,168 @@
     <col min="23" max="16384" width="8.875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="56.25" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
+    <row r="1" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
     </row>
-    <row r="2" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="22"/>
+    </row>
+    <row r="4" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="18"/>
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="24"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="24"/>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="13"/>
-    </row>
-    <row r="6" spans="1:18" ht="48" customHeight="1">
+    <row r="6" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -957,12 +958,12 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="48" customHeight="1">
+    <row r="7" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -981,12 +982,12 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="48" customHeight="1">
+    <row r="8" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1005,11 +1006,11 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="48" customHeight="1">
-      <c r="A9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -1027,30 +1028,36 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="28.5" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
+    <row r="10" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A9:B9"/>
@@ -1067,12 +1074,6 @@
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
